--- a/DOC/結合テスト/EMSM_結合試験項目仕様書_給料リスト -.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書_給料リスト -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB0ABEF-C07B-4328-B9A6-4D3A59DACC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB1F48-FF87-450C-AA97-A572F0B80031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="133" windowWidth="14544" windowHeight="10534" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="314">
   <si>
     <t>No</t>
   </si>
@@ -393,9 +393,6 @@
     <t>検索＿エラー</t>
   </si>
   <si>
-    <t>20230607</t>
-  </si>
-  <si>
     <t>E002</t>
   </si>
   <si>
@@ -423,12 +420,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>minusHour</t>
-  </si>
-  <si>
-    <t>plusHour</t>
-  </si>
-  <si>
     <t>wkPeriodFrom</t>
   </si>
   <si>
@@ -603,13 +594,7 @@
     <t>employerBurdenRate</t>
   </si>
   <si>
-    <t>employmentInsuranceRate</t>
-  </si>
-  <si>
     <t>industrialAccidentInsuranceRate</t>
-  </si>
-  <si>
-    <t>laborInsuranceRate</t>
   </si>
   <si>
     <t>2022</t>
@@ -862,9 +847,6 @@
     <t>対象年度</t>
   </si>
   <si>
-    <t>残業不足時間</t>
-  </si>
-  <si>
     <t>稼働期間From</t>
   </si>
   <si>
@@ -988,13 +970,7 @@
     <t>雇用保険事業主負担料率％</t>
   </si>
   <si>
-    <t>雇用保険料率％</t>
-  </si>
-  <si>
     <t>労災保険料率（全額事業主）％</t>
-  </si>
-  <si>
-    <t>労働保険料率％</t>
   </si>
   <si>
     <t>一般拠出金料率（全額事業主）％</t>
@@ -1048,6 +1024,9 @@
   </si>
   <si>
     <t>〇</t>
+  </si>
+  <si>
+    <t>20230608</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1729,6 +1708,39 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1786,6 +1798,99 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1828,149 +1933,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2369,16 +2339,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -2386,20 +2356,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="16.649999999999999">
@@ -2424,58 +2394,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="66"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="16.649999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="16.649999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="61"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="72"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="16.649999999999999">
@@ -2496,62 +2466,62 @@
       <c r="R21" s="8"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" ht="16.649999999999999">
+    <row r="22" spans="1:24" s="4" customFormat="1" ht="18.3">
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="63"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="74"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="16.649999999999999">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="66"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="77"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="16.649999999999999">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="69"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="80"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="16.649999999999999">
@@ -2812,7 +2782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="18.3">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -2894,11 +2864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="BO13" sqref="BO13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.3"/>
   <cols>
     <col min="1" max="3" width="2.09765625" style="36" customWidth="1"/>
     <col min="4" max="11" width="3.5" style="36" customWidth="1"/>
@@ -2981,34 +2951,34 @@
       <c r="BM1" s="29"/>
     </row>
     <row r="2" spans="1:65" s="30" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
       <c r="AQ2" s="31"/>
       <c r="AR2" s="31"/>
       <c r="AS2" s="31"/>
@@ -3034,32 +3004,32 @@
       <c r="BM2" s="29"/>
     </row>
     <row r="3" spans="1:65" s="30" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
       <c r="AQ3" s="31"/>
       <c r="AR3" s="31"/>
       <c r="AS3" s="31"/>
@@ -3085,830 +3055,879 @@
       <c r="BM3" s="33"/>
     </row>
     <row r="4" spans="1:65" s="30" customFormat="1" ht="13.6" customHeight="1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="82" t="s">
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="83"/>
-      <c r="AS4" s="83"/>
-      <c r="AT4" s="83"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="89" t="s">
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="125"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="125"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="125"/>
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="125"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="125"/>
+      <c r="AS4" s="125"/>
+      <c r="AT4" s="125"/>
+      <c r="AU4" s="125"/>
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="91"/>
-      <c r="AZ4" s="92">
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="100">
         <v>45084</v>
       </c>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="89" t="s">
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="92" t="s">
+      <c r="BG4" s="98"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="93"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="101"/>
+      <c r="BL4" s="101"/>
       <c r="BM4" s="34"/>
     </row>
     <row r="5" spans="1:65" s="30" customFormat="1" ht="13.6" customHeight="1" thickBot="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="94" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="100"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="100"/>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="100"/>
-      <c r="AS5" s="100"/>
-      <c r="AT5" s="100"/>
-      <c r="AU5" s="100"/>
-      <c r="AV5" s="101"/>
-      <c r="AW5" s="102" t="s">
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="109"/>
+      <c r="AW5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="102" t="s">
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="111"/>
+      <c r="BA5" s="111"/>
+      <c r="BB5" s="111"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="111"/>
+      <c r="BE5" s="111"/>
+      <c r="BF5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="104"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="100"/>
-      <c r="BK5" s="100"/>
-      <c r="BL5" s="100"/>
+      <c r="BG5" s="111"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="111"/>
+      <c r="BJ5" s="108"/>
+      <c r="BK5" s="108"/>
+      <c r="BL5" s="108"/>
       <c r="BM5" s="35"/>
     </row>
-    <row r="6" spans="1:65" ht="13.85" thickTop="1"/>
+    <row r="6" spans="1:65" ht="18.850000000000001" thickTop="1"/>
     <row r="7" spans="1:65" ht="22.75" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="85" t="s">
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="85" t="s">
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="95"/>
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="86"/>
-      <c r="AO7" s="86"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="86"/>
-      <c r="AW7" s="86"/>
-      <c r="AX7" s="87"/>
-      <c r="AY7" s="85" t="s">
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="86"/>
-      <c r="BA7" s="86"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="86"/>
-      <c r="BD7" s="87"/>
-      <c r="BE7" s="85" t="s">
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="95"/>
+      <c r="BC7" s="95"/>
+      <c r="BD7" s="96"/>
+      <c r="BE7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="BF7" s="86"/>
-      <c r="BG7" s="86"/>
-      <c r="BH7" s="86"/>
-      <c r="BI7" s="87"/>
-      <c r="BJ7" s="85" t="s">
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="96"/>
+      <c r="BJ7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="BK7" s="86"/>
-      <c r="BL7" s="86"/>
-      <c r="BM7" s="87"/>
+      <c r="BK7" s="95"/>
+      <c r="BL7" s="95"/>
+      <c r="BM7" s="96"/>
     </row>
     <row r="8" spans="1:65" s="37" customFormat="1" ht="54.85" customHeight="1">
-      <c r="A8" s="109">
+      <c r="A8" s="89">
         <v>1</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="105" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="105" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="105" t="s">
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="105" t="s">
-        <v>313</v>
-      </c>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="107"/>
-      <c r="AY8" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="110"/>
-      <c r="BC8" s="110"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="108" t="s">
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="90" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="84"/>
+      <c r="BE8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="BF8" s="106"/>
-      <c r="BG8" s="106"/>
-      <c r="BH8" s="106"/>
-      <c r="BI8" s="107"/>
-      <c r="BJ8" s="132">
+      <c r="BF8" s="86"/>
+      <c r="BG8" s="86"/>
+      <c r="BH8" s="86"/>
+      <c r="BI8" s="87"/>
+      <c r="BJ8" s="88">
         <v>45084</v>
       </c>
-      <c r="BK8" s="106"/>
-      <c r="BL8" s="106"/>
-      <c r="BM8" s="107"/>
+      <c r="BK8" s="86"/>
+      <c r="BL8" s="86"/>
+      <c r="BM8" s="87"/>
     </row>
     <row r="9" spans="1:65" s="37" customFormat="1" ht="90.3" customHeight="1">
-      <c r="A9" s="109">
+      <c r="A9" s="89">
         <v>2</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="105" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108" t="s">
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="105" t="s">
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="112"/>
-      <c r="AJ9" s="113"/>
-      <c r="AK9" s="105" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106"/>
-      <c r="AT9" s="106"/>
-      <c r="AU9" s="106"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ9" s="110"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="110"/>
-      <c r="BC9" s="110"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="108" t="s">
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="84"/>
+      <c r="BE9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="BF9" s="106"/>
-      <c r="BG9" s="106"/>
-      <c r="BH9" s="106"/>
-      <c r="BI9" s="107"/>
-      <c r="BJ9" s="132">
+      <c r="BF9" s="86"/>
+      <c r="BG9" s="86"/>
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="87"/>
+      <c r="BJ9" s="88">
         <v>45084</v>
       </c>
-      <c r="BK9" s="106"/>
-      <c r="BL9" s="106"/>
-      <c r="BM9" s="107"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="86"/>
+      <c r="BM9" s="87"/>
     </row>
     <row r="10" spans="1:65" s="37" customFormat="1" ht="59.85" customHeight="1">
-      <c r="A10" s="109">
+      <c r="A10" s="89">
         <v>3</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="105" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="108" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="105" t="s">
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="106"/>
-      <c r="AJ10" s="107"/>
-      <c r="AK10" s="105" t="s">
-        <v>315</v>
-      </c>
-      <c r="AL10" s="112"/>
-      <c r="AM10" s="112"/>
-      <c r="AN10" s="112"/>
-      <c r="AO10" s="112"/>
-      <c r="AP10" s="112"/>
-      <c r="AQ10" s="112"/>
-      <c r="AR10" s="112"/>
-      <c r="AS10" s="112"/>
-      <c r="AT10" s="112"/>
-      <c r="AU10" s="112"/>
-      <c r="AV10" s="112"/>
-      <c r="AW10" s="112"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ10" s="110"/>
-      <c r="BA10" s="110"/>
-      <c r="BB10" s="110"/>
-      <c r="BC10" s="110"/>
-      <c r="BD10" s="111"/>
-      <c r="BE10" s="108" t="s">
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="91"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="84"/>
+      <c r="BE10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="BF10" s="106"/>
-      <c r="BG10" s="106"/>
-      <c r="BH10" s="106"/>
-      <c r="BI10" s="107"/>
-      <c r="BJ10" s="132">
+      <c r="BF10" s="86"/>
+      <c r="BG10" s="86"/>
+      <c r="BH10" s="86"/>
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="88">
         <v>45084</v>
       </c>
-      <c r="BK10" s="106"/>
-      <c r="BL10" s="106"/>
-      <c r="BM10" s="107"/>
+      <c r="BK10" s="86"/>
+      <c r="BL10" s="86"/>
+      <c r="BM10" s="87"/>
     </row>
     <row r="11" spans="1:65" s="37" customFormat="1" ht="57.6" customHeight="1">
-      <c r="A11" s="109">
+      <c r="A11" s="89">
         <v>4</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="105" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="105" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="107"/>
-      <c r="AK11" s="105" t="s">
-        <v>316</v>
-      </c>
-      <c r="AL11" s="112"/>
-      <c r="AM11" s="112"/>
-      <c r="AN11" s="112"/>
-      <c r="AO11" s="112"/>
-      <c r="AP11" s="112"/>
-      <c r="AQ11" s="112"/>
-      <c r="AR11" s="112"/>
-      <c r="AS11" s="112"/>
-      <c r="AT11" s="112"/>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="112"/>
-      <c r="AW11" s="112"/>
-      <c r="AX11" s="113"/>
-      <c r="AY11" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="111"/>
-      <c r="BE11" s="108" t="s">
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="91"/>
+      <c r="AO11" s="91"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="83"/>
+      <c r="BB11" s="83"/>
+      <c r="BC11" s="83"/>
+      <c r="BD11" s="84"/>
+      <c r="BE11" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="BF11" s="106"/>
-      <c r="BG11" s="106"/>
-      <c r="BH11" s="106"/>
-      <c r="BI11" s="107"/>
-      <c r="BJ11" s="132">
+      <c r="BF11" s="86"/>
+      <c r="BG11" s="86"/>
+      <c r="BH11" s="86"/>
+      <c r="BI11" s="87"/>
+      <c r="BJ11" s="88">
         <v>45084</v>
       </c>
-      <c r="BK11" s="106"/>
-      <c r="BL11" s="106"/>
-      <c r="BM11" s="107"/>
+      <c r="BK11" s="86"/>
+      <c r="BL11" s="86"/>
+      <c r="BM11" s="87"/>
     </row>
     <row r="12" spans="1:65" s="37" customFormat="1" ht="57.05" customHeight="1">
-      <c r="A12" s="109">
+      <c r="A12" s="89">
         <v>5</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="105" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="105" t="s">
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="107"/>
-      <c r="AK12" s="105" t="s">
-        <v>317</v>
-      </c>
-      <c r="AL12" s="112"/>
-      <c r="AM12" s="112"/>
-      <c r="AN12" s="112"/>
-      <c r="AO12" s="112"/>
-      <c r="AP12" s="112"/>
-      <c r="AQ12" s="112"/>
-      <c r="AR12" s="112"/>
-      <c r="AS12" s="112"/>
-      <c r="AT12" s="112"/>
-      <c r="AU12" s="112"/>
-      <c r="AV12" s="112"/>
-      <c r="AW12" s="112"/>
-      <c r="AX12" s="113"/>
-      <c r="AY12" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ12" s="110"/>
-      <c r="BA12" s="110"/>
-      <c r="BB12" s="110"/>
-      <c r="BC12" s="110"/>
-      <c r="BD12" s="111"/>
-      <c r="BE12" s="108" t="s">
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="91"/>
+      <c r="AO12" s="91"/>
+      <c r="AP12" s="91"/>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="92"/>
+      <c r="AY12" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="83"/>
+      <c r="BC12" s="83"/>
+      <c r="BD12" s="84"/>
+      <c r="BE12" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="BF12" s="106"/>
-      <c r="BG12" s="106"/>
-      <c r="BH12" s="106"/>
-      <c r="BI12" s="107"/>
-      <c r="BJ12" s="132">
+      <c r="BF12" s="86"/>
+      <c r="BG12" s="86"/>
+      <c r="BH12" s="86"/>
+      <c r="BI12" s="87"/>
+      <c r="BJ12" s="88">
         <v>45084</v>
       </c>
-      <c r="BK12" s="106"/>
-      <c r="BL12" s="106"/>
-      <c r="BM12" s="107"/>
+      <c r="BK12" s="86"/>
+      <c r="BL12" s="86"/>
+      <c r="BM12" s="87"/>
     </row>
     <row r="13" spans="1:65" s="37" customFormat="1" ht="144" customHeight="1">
-      <c r="A13" s="109">
+      <c r="A13" s="89">
         <v>6</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="105" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="108" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="105" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="107"/>
-      <c r="AY13" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ13" s="110"/>
-      <c r="BA13" s="110"/>
-      <c r="BB13" s="110"/>
-      <c r="BC13" s="110"/>
-      <c r="BD13" s="111"/>
-      <c r="BE13" s="108" t="s">
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="86"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="86"/>
+      <c r="AW13" s="86"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="83"/>
+      <c r="BB13" s="83"/>
+      <c r="BC13" s="83"/>
+      <c r="BD13" s="84"/>
+      <c r="BE13" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="BF13" s="106"/>
-      <c r="BG13" s="106"/>
-      <c r="BH13" s="106"/>
-      <c r="BI13" s="107"/>
-      <c r="BJ13" s="132">
+      <c r="BF13" s="86"/>
+      <c r="BG13" s="86"/>
+      <c r="BH13" s="86"/>
+      <c r="BI13" s="87"/>
+      <c r="BJ13" s="88">
         <v>45084</v>
       </c>
-      <c r="BK13" s="106"/>
-      <c r="BL13" s="106"/>
-      <c r="BM13" s="107"/>
+      <c r="BK13" s="86"/>
+      <c r="BL13" s="86"/>
+      <c r="BM13" s="87"/>
     </row>
     <row r="14" spans="1:65" s="37" customFormat="1" ht="77.55" customHeight="1">
-      <c r="A14" s="109">
+      <c r="A14" s="89">
         <v>7</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="105" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL14" s="112"/>
-      <c r="AM14" s="112"/>
-      <c r="AN14" s="112"/>
-      <c r="AO14" s="112"/>
-      <c r="AP14" s="112"/>
-      <c r="AQ14" s="112"/>
-      <c r="AR14" s="112"/>
-      <c r="AS14" s="112"/>
-      <c r="AT14" s="112"/>
-      <c r="AU14" s="112"/>
-      <c r="AV14" s="112"/>
-      <c r="AW14" s="112"/>
-      <c r="AX14" s="113"/>
-      <c r="AY14" s="114" t="s">
-        <v>202</v>
-      </c>
-      <c r="AZ14" s="110"/>
-      <c r="BA14" s="110"/>
-      <c r="BB14" s="110"/>
-      <c r="BC14" s="110"/>
-      <c r="BD14" s="111"/>
-      <c r="BE14" s="108" t="s">
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="91"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="92"/>
+      <c r="AY14" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="83"/>
+      <c r="BB14" s="83"/>
+      <c r="BC14" s="83"/>
+      <c r="BD14" s="84"/>
+      <c r="BE14" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="BF14" s="106"/>
-      <c r="BG14" s="106"/>
-      <c r="BH14" s="106"/>
-      <c r="BI14" s="107"/>
-      <c r="BJ14" s="132">
+      <c r="BF14" s="86"/>
+      <c r="BG14" s="86"/>
+      <c r="BH14" s="86"/>
+      <c r="BI14" s="87"/>
+      <c r="BJ14" s="88">
         <v>45084</v>
       </c>
-      <c r="BK14" s="106"/>
-      <c r="BL14" s="106"/>
-      <c r="BM14" s="107"/>
+      <c r="BK14" s="86"/>
+      <c r="BL14" s="86"/>
+      <c r="BM14" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="AY14:BD14"/>
-    <mergeCell ref="BE14:BI14"/>
-    <mergeCell ref="BJ14:BM14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:AJ14"/>
-    <mergeCell ref="AK14:AX14"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="BJ7:BM7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="S7:AJ7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="S8:AJ8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="AK8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="AK10:AX10"/>
     <mergeCell ref="AY12:BD12"/>
     <mergeCell ref="BE12:BI12"/>
     <mergeCell ref="BJ12:BM12"/>
@@ -3925,63 +3944,14 @@
     <mergeCell ref="L12:R12"/>
     <mergeCell ref="S12:AJ12"/>
     <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="BE8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="S8:AJ8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="AK8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AY14:BD14"/>
+    <mergeCell ref="BE14:BI14"/>
+    <mergeCell ref="BJ14:BM14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:AJ14"/>
+    <mergeCell ref="AK14:AX14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3991,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ66"/>
+  <dimension ref="A1:AH63"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.55"/>
@@ -4004,11 +3974,11 @@
     <col min="3" max="3" width="9.8984375" style="38" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" style="38" customWidth="1"/>
     <col min="5" max="5" width="24.8984375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" style="38" customWidth="1"/>
     <col min="7" max="7" width="23" style="38" customWidth="1"/>
     <col min="8" max="8" width="15.59765625" style="38" customWidth="1"/>
     <col min="9" max="9" width="24.8984375" style="38" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="16.296875" style="38" customWidth="1"/>
     <col min="11" max="11" width="13.19921875" style="38" customWidth="1"/>
     <col min="12" max="12" width="12.59765625" style="38" customWidth="1"/>
     <col min="13" max="13" width="9" style="38"/>
@@ -4034,127 +4004,127 @@
   <sheetData>
     <row r="1" spans="1:34" ht="21.05" customHeight="1">
       <c r="B1" s="38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="21.05" customHeight="1">
-      <c r="B2" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="125" t="s">
+      <c r="B2" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="J2" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="125" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="125" t="s">
+      <c r="K2" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="L2" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="O2" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="125" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="125" t="s">
-        <v>222</v>
-      </c>
-      <c r="K2" s="125" t="s">
+      <c r="P2" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="125" t="s">
+      <c r="Q2" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="125" t="s">
+      <c r="T2" s="57" t="s">
         <v>226</v>
-      </c>
-      <c r="N2" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="O2" s="125" t="s">
-        <v>228</v>
-      </c>
-      <c r="P2" s="125" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q2" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="125" t="s">
-        <v>230</v>
-      </c>
-      <c r="T2" s="125" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="31.05">
       <c r="A3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="124" t="s">
+      <c r="L3" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="124" t="s">
+      <c r="M3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="124" t="s">
+      <c r="N3" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="124" t="s">
+      <c r="O3" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="124" t="s">
+      <c r="P3" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="124" t="s">
+      <c r="Q3" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="124" t="s">
+      <c r="R3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="124" t="s">
+      <c r="S3" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="124" t="s">
+      <c r="T3" s="56" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4176,7 +4146,7 @@
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
@@ -4195,20 +4165,20 @@
     <row r="5" spans="1:34">
       <c r="A5" s="39"/>
       <c r="B5" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>109</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
@@ -4227,20 +4197,20 @@
     <row r="6" spans="1:34">
       <c r="A6" s="39"/>
       <c r="B6" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
@@ -4280,107 +4250,107 @@
     </row>
     <row r="8" spans="1:34">
       <c r="B8" s="38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="B9" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="125" t="s">
+      <c r="B9" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="I9" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="J9" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="125" t="s">
+      <c r="K9" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="125" t="s">
+      <c r="L9" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="125" t="s">
+      <c r="M9" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="I9" s="125" t="s">
+      <c r="N9" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="J9" s="125" t="s">
+      <c r="O9" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="K9" s="125" t="s">
+      <c r="P9" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="L9" s="125" t="s">
+      <c r="Q9" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="M9" s="125" t="s">
+      <c r="R9" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="N9" s="125" t="s">
+      <c r="S9" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="O9" s="125" t="s">
+      <c r="T9" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="P9" s="125" t="s">
+      <c r="U9" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="Q9" s="125" t="s">
+      <c r="V9" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="R9" s="125" t="s">
+      <c r="W9" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="S9" s="125" t="s">
+      <c r="X9" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="T9" s="125" t="s">
+      <c r="Y9" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="Z9" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="AA9" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="AB9" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="AC9" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="AD9" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="Z9" s="125" t="s">
+      <c r="AE9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF9" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="AA9" s="125" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB9" s="125" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC9" s="125" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD9" s="125" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE9" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF9" s="125" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG9" s="125" t="s">
+      <c r="AG9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="125" t="s">
+      <c r="AH9" s="57" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4388,103 +4358,103 @@
       <c r="A10" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="124" t="s">
+      <c r="G10" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="H10" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="124" t="s">
+      <c r="J10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="K10" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="124" t="s">
+      <c r="L10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="124" t="s">
+      <c r="M10" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="124" t="s">
+      <c r="N10" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="124" t="s">
+      <c r="O10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="124" t="s">
+      <c r="P10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="124" t="s">
+      <c r="Q10" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="R10" s="124" t="s">
+      <c r="R10" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="S10" s="124" t="s">
+      <c r="S10" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="124" t="s">
+      <c r="T10" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="124" t="s">
+      <c r="U10" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="V10" s="124" t="s">
+      <c r="V10" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="W10" s="124" t="s">
+      <c r="W10" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="X10" s="124" t="s">
+      <c r="X10" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="Y10" s="124" t="s">
+      <c r="Y10" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="Z10" s="124" t="s">
+      <c r="Z10" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="AA10" s="124" t="s">
+      <c r="AA10" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="AB10" s="124" t="s">
+      <c r="AB10" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="AC10" s="124" t="s">
+      <c r="AC10" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="AD10" s="124" t="s">
+      <c r="AD10" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="AE10" s="124" t="s">
+      <c r="AE10" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AF10" s="124" t="s">
+      <c r="AF10" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="AG10" s="124" t="s">
+      <c r="AG10" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="AH10" s="124" t="s">
+      <c r="AH10" s="56" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4590,240 +4560,208 @@
     </row>
     <row r="14" spans="1:34">
       <c r="B14" s="38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="B15" s="125" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="125" t="s">
+      <c r="B15" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="I15" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="125" t="s">
-        <v>235</v>
-      </c>
-      <c r="F15" s="125" t="s">
-        <v>263</v>
-      </c>
-      <c r="G15" s="125" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="125" t="s">
-        <v>265</v>
-      </c>
-      <c r="I15" s="125" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" s="125" t="s">
-        <v>267</v>
-      </c>
-      <c r="K15" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="125" t="s">
-        <v>268</v>
-      </c>
-      <c r="N15" s="125" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="31.05">
+      <c r="L15" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="D16" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="E16" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="F16" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="124" t="s">
+      <c r="G16" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="124" t="s">
+      <c r="H16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="124" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="124" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="124" t="s">
+      <c r="L16" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="47">
         <v>186000</v>
       </c>
       <c r="C17" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="47">
+        <v>110</v>
+      </c>
+      <c r="E17" s="47">
+        <v>160</v>
+      </c>
+      <c r="F17" s="48">
+        <v>8</v>
+      </c>
+      <c r="G17" s="48">
+        <v>10</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="47">
-        <v>3</v>
-      </c>
-      <c r="E17" s="47">
-        <v>2</v>
-      </c>
-      <c r="F17" s="47">
-        <v>110</v>
-      </c>
-      <c r="G17" s="47">
-        <v>160</v>
-      </c>
-      <c r="H17" s="48">
-        <v>8</v>
-      </c>
-      <c r="I17" s="48">
-        <v>8</v>
-      </c>
-      <c r="J17" s="47">
-        <v>0</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>124</v>
-      </c>
       <c r="L17" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="N17" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="47">
         <v>195000</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="47">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E18" s="47">
-        <v>2</v>
-      </c>
-      <c r="F18" s="47">
-        <v>110</v>
-      </c>
-      <c r="G18" s="47">
-        <v>100</v>
-      </c>
-      <c r="H18" s="48">
+        <v>140</v>
+      </c>
+      <c r="F18" s="48">
         <v>8</v>
       </c>
-      <c r="I18" s="48">
-        <v>8</v>
-      </c>
-      <c r="J18" s="47">
+      <c r="G18" s="48">
+        <v>10</v>
+      </c>
+      <c r="H18" s="47">
         <v>0</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>122</v>
       </c>
       <c r="K18" s="41" t="s">
         <v>124</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="N18" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="47">
         <v>220000</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D19" s="47">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E19" s="47">
-        <v>2</v>
-      </c>
-      <c r="F19" s="47">
-        <v>110</v>
-      </c>
-      <c r="G19" s="47">
         <v>150</v>
       </c>
-      <c r="H19" s="48">
+      <c r="F19" s="48">
         <v>8</v>
       </c>
-      <c r="I19" s="48">
-        <v>8</v>
-      </c>
-      <c r="J19" s="47">
+      <c r="G19" s="48">
+        <v>10</v>
+      </c>
+      <c r="H19" s="47">
         <v>0</v>
       </c>
+      <c r="I19" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>122</v>
+      </c>
       <c r="K19" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
     </row>
     <row r="21" spans="1:14">
       <c r="B21" s="49"/>
@@ -4842,47 +4780,47 @@
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="38" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="I23" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="J23" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="L23" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="125" t="s">
-        <v>292</v>
-      </c>
-      <c r="F23" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" s="125" t="s">
-        <v>294</v>
-      </c>
-      <c r="H23" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="I23" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J23" s="125" t="s">
-        <v>297</v>
-      </c>
-      <c r="K23" s="125" t="s">
-        <v>298</v>
-      </c>
-      <c r="L23" s="125" t="s">
-        <v>267</v>
-      </c>
-      <c r="M23" s="125" t="s">
+      <c r="M23" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="125" t="s">
+      <c r="N23" s="57" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4890,58 +4828,58 @@
       <c r="A24" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="124" t="s">
+      <c r="G24" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="H24" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="124" t="s">
+      <c r="I24" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="124" t="s">
+      <c r="J24" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="K24" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="124" t="s">
-        <v>163</v>
-      </c>
-      <c r="J24" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="124" t="s">
+      <c r="L24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="124" t="s">
+      <c r="M24" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="124" t="s">
+      <c r="N24" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="38" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E25" s="47">
         <v>190000</v>
@@ -4968,24 +4906,24 @@
         <v>1</v>
       </c>
       <c r="M25" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="38" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E26" s="47">
         <v>200000</v>
@@ -5012,24 +4950,24 @@
         <v>1</v>
       </c>
       <c r="M26" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N26" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="38" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E27" s="47">
         <v>220000</v>
@@ -5056,45 +4994,45 @@
         <v>1</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N27" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="51" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="49"/>
@@ -5110,62 +5048,62 @@
       <c r="N30" s="44"/>
     </row>
     <row r="31" spans="1:14" s="39" customFormat="1">
-      <c r="B31" s="126" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" s="127" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="126" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="126" t="s">
-        <v>272</v>
-      </c>
-      <c r="F31" s="126" t="s">
-        <v>273</v>
-      </c>
-      <c r="G31" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="H31" s="128" t="s">
+      <c r="B31" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="H31" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="128" t="s">
+      <c r="I31" s="60" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="51"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" s="124" t="s">
+      <c r="B32" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="124" t="s">
+      <c r="I32" s="56" t="s">
         <v>46</v>
       </c>
       <c r="J32" s="49"/>
@@ -5176,19 +5114,19 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F33" s="48">
         <v>210.25</v>
@@ -5197,10 +5135,10 @@
         <v>55</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="44"/>
@@ -5210,19 +5148,19 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F34" s="48">
         <v>99.25</v>
@@ -5231,10 +5169,10 @@
         <v>55</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J34" s="49"/>
       <c r="K34" s="44"/>
@@ -5244,19 +5182,19 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F35" s="47">
         <v>140</v>
@@ -5265,10 +5203,10 @@
         <v>55</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J35" s="49"/>
       <c r="K35" s="44"/>
@@ -5308,71 +5246,71 @@
     </row>
     <row r="38" spans="1:22">
       <c r="B38" s="38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="B39" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="125" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="125" t="s">
+      <c r="B39" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="E39" s="125" t="s">
+      <c r="M39" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="F39" s="125" t="s">
+      <c r="N39" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="G39" s="125" t="s">
+      <c r="O39" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="H39" s="125" t="s">
+      <c r="P39" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="I39" s="125" t="s">
+      <c r="Q39" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="J39" s="125" t="s">
+      <c r="R39" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="K39" s="125" t="s">
-        <v>282</v>
-      </c>
-      <c r="L39" s="125" t="s">
+      <c r="S39" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="M39" s="125" t="s">
-        <v>284</v>
-      </c>
-      <c r="N39" s="125" t="s">
-        <v>285</v>
-      </c>
-      <c r="O39" s="125" t="s">
-        <v>286</v>
-      </c>
-      <c r="P39" s="125" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q39" s="125" t="s">
-        <v>239</v>
-      </c>
-      <c r="R39" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="S39" s="125" t="s">
-        <v>289</v>
-      </c>
-      <c r="T39" s="125" t="s">
-        <v>267</v>
-      </c>
-      <c r="U39" s="125" t="s">
+      <c r="T39" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="U39" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="V39" s="125" t="s">
+      <c r="V39" s="57" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5380,73 +5318,73 @@
       <c r="A40" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="124" t="s">
+      <c r="C40" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="124" t="s">
+      <c r="G40" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="124" t="s">
+      <c r="J40" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="124" t="s">
+      <c r="K40" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="124" t="s">
+      <c r="L40" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="124" t="s">
+      <c r="M40" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="124" t="s">
+      <c r="N40" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="124" t="s">
+      <c r="O40" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="K40" s="124" t="s">
+      <c r="P40" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="L40" s="124" t="s">
+      <c r="Q40" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="M40" s="124" t="s">
+      <c r="R40" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="N40" s="124" t="s">
-        <v>140</v>
-      </c>
-      <c r="O40" s="124" t="s">
-        <v>141</v>
-      </c>
-      <c r="P40" s="124" t="s">
+      <c r="S40" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="Q40" s="124" t="s">
-        <v>143</v>
-      </c>
-      <c r="R40" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="S40" s="124" t="s">
-        <v>145</v>
-      </c>
-      <c r="T40" s="124" t="s">
+      <c r="T40" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="U40" s="124" t="s">
+      <c r="U40" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="V40" s="124" t="s">
+      <c r="V40" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>49</v>
@@ -5455,52 +5393,52 @@
         <v>96</v>
       </c>
       <c r="D41" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="47">
+        <v>7000</v>
+      </c>
+      <c r="H41" s="47">
+        <v>700</v>
+      </c>
+      <c r="I41" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="J41" s="47">
+        <v>3000</v>
+      </c>
+      <c r="K41" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="L41" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="M41" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="47">
-        <v>3000</v>
-      </c>
-      <c r="I41" s="41" t="s">
+      <c r="N41" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="O41" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P41" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="41" t="s">
+      <c r="Q41" s="47">
+        <v>0</v>
+      </c>
+      <c r="R41" s="47">
+        <v>0</v>
+      </c>
+      <c r="S41" s="41" t="s">
         <v>151</v>
-      </c>
-      <c r="K41" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="L41" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="M41" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="N41" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="O41" s="47">
-        <v>0</v>
-      </c>
-      <c r="P41" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="47">
-        <v>7000</v>
-      </c>
-      <c r="R41" s="47">
-        <v>700</v>
-      </c>
-      <c r="S41" s="41" t="s">
-        <v>154</v>
       </c>
       <c r="T41" s="41" t="s">
         <v>52</v>
@@ -5514,61 +5452,61 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D42" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="47">
+        <v>8800</v>
+      </c>
+      <c r="H42" s="47">
+        <v>345</v>
+      </c>
+      <c r="I42" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="J42" s="47">
+        <v>3000</v>
+      </c>
+      <c r="K42" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="L42" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="M42" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="H42" s="47">
-        <v>3000</v>
-      </c>
-      <c r="I42" s="41" t="s">
+      <c r="N42" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P42" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="41" t="s">
+      <c r="Q42" s="47">
+        <v>0</v>
+      </c>
+      <c r="R42" s="47">
+        <v>0</v>
+      </c>
+      <c r="S42" s="41" t="s">
         <v>151</v>
-      </c>
-      <c r="K42" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="L42" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="M42" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="N42" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="O42" s="47">
-        <v>0</v>
-      </c>
-      <c r="P42" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="47">
-        <v>8800</v>
-      </c>
-      <c r="R42" s="47">
-        <v>345</v>
-      </c>
-      <c r="S42" s="41" t="s">
-        <v>154</v>
       </c>
       <c r="T42" s="41" t="s">
         <v>52</v>
@@ -5582,61 +5520,61 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="47">
+        <v>7500</v>
+      </c>
+      <c r="H43" s="47">
+        <v>1250</v>
+      </c>
+      <c r="I43" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="J43" s="47">
+        <v>3000</v>
+      </c>
+      <c r="K43" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="L43" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="M43" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="H43" s="47">
-        <v>3000</v>
-      </c>
-      <c r="I43" s="41" t="s">
+      <c r="N43" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="O43" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P43" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J43" s="41" t="s">
+      <c r="Q43" s="47">
+        <v>0</v>
+      </c>
+      <c r="R43" s="47">
+        <v>0</v>
+      </c>
+      <c r="S43" s="41" t="s">
         <v>151</v>
-      </c>
-      <c r="K43" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="L43" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="M43" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="N43" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="O43" s="47">
-        <v>0</v>
-      </c>
-      <c r="P43" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="47">
-        <v>7500</v>
-      </c>
-      <c r="R43" s="47">
-        <v>1250</v>
-      </c>
-      <c r="S43" s="41" t="s">
-        <v>154</v>
       </c>
       <c r="T43" s="41" t="s">
         <v>52</v>
@@ -5665,7 +5603,7 @@
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="44" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
@@ -5681,54 +5619,54 @@
       <c r="N46" s="44"/>
     </row>
     <row r="47" spans="1:22" s="39" customFormat="1">
-      <c r="B47" s="127" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="127" t="s">
+      <c r="B47" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="127" t="s">
-        <v>291</v>
-      </c>
-      <c r="E47" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" s="126" t="s">
-        <v>267</v>
-      </c>
-      <c r="G47" s="126" t="s">
+      <c r="G47" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="128" t="s">
+      <c r="H47" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="51"/>
-      <c r="M47" s="123"/>
-      <c r="N47" s="123"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="124" t="s">
-        <v>181</v>
-      </c>
-      <c r="C48" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="124" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="124" t="s">
+      <c r="B48" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="124" t="s">
+      <c r="G48" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="124" t="s">
+      <c r="H48" s="56" t="s">
         <v>46</v>
       </c>
       <c r="I48" s="50"/>
@@ -5738,18 +5676,18 @@
       <c r="M48" s="44"/>
       <c r="N48" s="44"/>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:31">
       <c r="A49" s="38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B49" s="47">
         <v>1</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E49" s="48">
         <v>9.08</v>
@@ -5758,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I49" s="50"/>
       <c r="J49" s="50"/>
@@ -5770,7 +5708,7 @@
       <c r="M49" s="44"/>
       <c r="N49" s="44"/>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:31">
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
@@ -5785,93 +5723,81 @@
       <c r="M50" s="44"/>
       <c r="N50" s="44"/>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:31">
       <c r="B52" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36">
-      <c r="B53" s="125" t="s">
-        <v>301</v>
-      </c>
-      <c r="C53" s="125" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="B53" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="F53" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="H53" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="D53" s="125" t="s">
-        <v>302</v>
-      </c>
-      <c r="E53" s="125" t="s">
-        <v>303</v>
-      </c>
-      <c r="F53" s="125" t="s">
-        <v>304</v>
-      </c>
-      <c r="G53" s="125" t="s">
-        <v>305</v>
-      </c>
-      <c r="H53" s="125" t="s">
-        <v>306</v>
-      </c>
-      <c r="I53" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="J53" s="125" t="s">
-        <v>267</v>
-      </c>
-      <c r="K53" s="125" t="s">
+      <c r="I53" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L53" s="125" t="s">
+      <c r="J53" s="57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="31.05">
+    <row r="54" spans="1:31" ht="31.05">
       <c r="A54" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="124" t="s">
+      <c r="B54" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="124" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="124" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54" s="124" t="s">
-        <v>176</v>
-      </c>
-      <c r="G54" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="H54" s="124" t="s">
+      <c r="G54" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="I54" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="J54" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="L54" s="124" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36">
-      <c r="A55" s="38" t="s">
-        <v>183</v>
-      </c>
       <c r="B55" s="41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D55" s="48">
         <v>9.1999999999999993</v>
@@ -5880,344 +5806,214 @@
         <v>9.15</v>
       </c>
       <c r="F55" s="48">
-        <v>9.0500000000000007</v>
+        <v>9.08</v>
       </c>
       <c r="G55" s="48">
-        <v>9.08</v>
-      </c>
-      <c r="H55" s="48">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="I55" s="48">
         <v>9.0050000000000008</v>
       </c>
-      <c r="J55" s="47">
+      <c r="H55" s="47">
         <v>0</v>
       </c>
-      <c r="K55" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="L55" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:36">
+      <c r="I55" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="B58" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36">
-      <c r="B59" s="125" t="s">
-        <v>308</v>
-      </c>
-      <c r="C59" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="125" t="s">
-        <v>261</v>
-      </c>
-      <c r="E59" s="125" t="s">
-        <v>309</v>
-      </c>
-      <c r="F59" s="125" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:36">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="B59" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="124" t="s">
+      <c r="B60" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="129" t="s">
-        <v>185</v>
-      </c>
-      <c r="F60" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="118"/>
-      <c r="Q60" s="118"/>
-      <c r="R60" s="118"/>
-      <c r="S60" s="118"/>
-      <c r="T60" s="118"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="118"/>
-      <c r="W60" s="119"/>
-      <c r="X60" s="118"/>
-      <c r="Y60" s="118"/>
-      <c r="Z60" s="118"/>
-      <c r="AA60" s="118"/>
-      <c r="AB60" s="118"/>
-      <c r="AC60" s="118"/>
-      <c r="AD60" s="118"/>
-      <c r="AE60" s="118"/>
-      <c r="AF60" s="119"/>
-      <c r="AG60" s="119"/>
-      <c r="AH60" s="119"/>
-      <c r="AI60" s="119"/>
-      <c r="AJ60" s="119"/>
-    </row>
-    <row r="61" spans="1:36">
+      <c r="D60" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="53"/>
+      <c r="AD60" s="53"/>
+      <c r="AE60" s="53"/>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="38" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="115">
+        <v>120</v>
+      </c>
+      <c r="E61" s="52">
         <v>11500</v>
       </c>
-      <c r="F61" s="122">
+      <c r="F61" s="54">
         <v>10050</v>
       </c>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="120"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="120"/>
-      <c r="M61" s="120"/>
-      <c r="N61" s="120"/>
-      <c r="O61" s="120"/>
-      <c r="P61" s="120"/>
-      <c r="Q61" s="120"/>
-      <c r="R61" s="120"/>
-      <c r="S61" s="120"/>
-      <c r="T61" s="120"/>
-      <c r="U61" s="120"/>
-      <c r="V61" s="120"/>
-      <c r="W61" s="119"/>
-      <c r="X61" s="120"/>
-      <c r="Y61" s="120"/>
-      <c r="Z61" s="120"/>
-      <c r="AA61" s="120"/>
-      <c r="AB61" s="120"/>
-      <c r="AC61" s="120"/>
-      <c r="AD61" s="121"/>
-      <c r="AE61" s="121"/>
-      <c r="AF61" s="119"/>
-      <c r="AG61" s="119"/>
-      <c r="AH61" s="119"/>
-      <c r="AI61" s="119"/>
-      <c r="AJ61" s="119"/>
-    </row>
-    <row r="62" spans="1:36">
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="44"/>
+      <c r="AE61" s="44"/>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="38" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C62" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="52">
+        <v>10500</v>
+      </c>
+      <c r="F62" s="54">
+        <v>9500</v>
+      </c>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="49"/>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="44"/>
+      <c r="AE62" s="44"/>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="115">
-        <v>10500</v>
-      </c>
-      <c r="F62" s="122">
-        <v>9500</v>
-      </c>
-      <c r="G62" s="120"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="120"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="120"/>
-      <c r="M62" s="120"/>
-      <c r="N62" s="120"/>
-      <c r="O62" s="120"/>
-      <c r="P62" s="120"/>
-      <c r="Q62" s="120"/>
-      <c r="R62" s="120"/>
-      <c r="S62" s="120"/>
-      <c r="T62" s="120"/>
-      <c r="U62" s="120"/>
-      <c r="V62" s="120"/>
-      <c r="W62" s="119"/>
-      <c r="X62" s="120"/>
-      <c r="Y62" s="120"/>
-      <c r="Z62" s="120"/>
-      <c r="AA62" s="120"/>
-      <c r="AB62" s="120"/>
-      <c r="AC62" s="120"/>
-      <c r="AD62" s="121"/>
-      <c r="AE62" s="121"/>
-      <c r="AF62" s="119"/>
-      <c r="AG62" s="119"/>
-      <c r="AH62" s="119"/>
-      <c r="AI62" s="119"/>
-      <c r="AJ62" s="119"/>
-    </row>
-    <row r="63" spans="1:36">
-      <c r="A63" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>108</v>
-      </c>
       <c r="D63" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="115">
+        <v>120</v>
+      </c>
+      <c r="E63" s="52">
         <v>10250</v>
       </c>
-      <c r="F63" s="122">
+      <c r="F63" s="54">
         <v>9250</v>
       </c>
-      <c r="G63" s="120"/>
-      <c r="H63" s="120"/>
-      <c r="I63" s="120"/>
-      <c r="J63" s="120"/>
-      <c r="K63" s="119"/>
-      <c r="L63" s="120"/>
-      <c r="M63" s="120"/>
-      <c r="N63" s="120"/>
-      <c r="O63" s="120"/>
-      <c r="P63" s="120"/>
-      <c r="Q63" s="120"/>
-      <c r="R63" s="120"/>
-      <c r="S63" s="120"/>
-      <c r="T63" s="120"/>
-      <c r="U63" s="120"/>
-      <c r="V63" s="120"/>
-      <c r="W63" s="119"/>
-      <c r="X63" s="120"/>
-      <c r="Y63" s="120"/>
-      <c r="Z63" s="120"/>
-      <c r="AA63" s="120"/>
-      <c r="AB63" s="120"/>
-      <c r="AC63" s="120"/>
-      <c r="AD63" s="121"/>
-      <c r="AE63" s="121"/>
-      <c r="AF63" s="119"/>
-      <c r="AG63" s="119"/>
-      <c r="AH63" s="119"/>
-      <c r="AI63" s="119"/>
-      <c r="AJ63" s="119"/>
-    </row>
-    <row r="64" spans="1:36">
-      <c r="G64" s="119"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
-      <c r="J64" s="119"/>
-      <c r="K64" s="119"/>
-      <c r="L64" s="119"/>
-      <c r="M64" s="119"/>
-      <c r="N64" s="119"/>
-      <c r="O64" s="119"/>
-      <c r="P64" s="119"/>
-      <c r="Q64" s="119"/>
-      <c r="R64" s="119"/>
-      <c r="S64" s="119"/>
-      <c r="T64" s="119"/>
-      <c r="U64" s="119"/>
-      <c r="V64" s="119"/>
-      <c r="W64" s="119"/>
-      <c r="X64" s="119"/>
-      <c r="Y64" s="119"/>
-      <c r="Z64" s="119"/>
-      <c r="AA64" s="119"/>
-      <c r="AB64" s="119"/>
-      <c r="AC64" s="119"/>
-      <c r="AD64" s="119"/>
-      <c r="AE64" s="119"/>
-      <c r="AF64" s="119"/>
-      <c r="AG64" s="119"/>
-      <c r="AH64" s="119"/>
-      <c r="AI64" s="119"/>
-      <c r="AJ64" s="119"/>
-    </row>
-    <row r="65" spans="7:36">
-      <c r="G65" s="119"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
-      <c r="J65" s="119"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="119"/>
-      <c r="M65" s="119"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="119"/>
-      <c r="P65" s="119"/>
-      <c r="Q65" s="119"/>
-      <c r="R65" s="119"/>
-      <c r="S65" s="119"/>
-      <c r="T65" s="119"/>
-      <c r="U65" s="119"/>
-      <c r="V65" s="119"/>
-      <c r="W65" s="119"/>
-      <c r="X65" s="119"/>
-      <c r="Y65" s="119"/>
-      <c r="Z65" s="119"/>
-      <c r="AA65" s="119"/>
-      <c r="AB65" s="119"/>
-      <c r="AC65" s="119"/>
-      <c r="AD65" s="119"/>
-      <c r="AE65" s="119"/>
-      <c r="AF65" s="119"/>
-      <c r="AG65" s="119"/>
-      <c r="AH65" s="119"/>
-      <c r="AI65" s="119"/>
-      <c r="AJ65" s="119"/>
-    </row>
-    <row r="66" spans="7:36">
-      <c r="G66" s="119"/>
-      <c r="H66" s="119"/>
-      <c r="I66" s="119"/>
-      <c r="J66" s="119"/>
-      <c r="K66" s="119"/>
-      <c r="L66" s="119"/>
-      <c r="M66" s="119"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="119"/>
-      <c r="P66" s="119"/>
-      <c r="Q66" s="119"/>
-      <c r="R66" s="119"/>
-      <c r="S66" s="119"/>
-      <c r="T66" s="119"/>
-      <c r="U66" s="119"/>
-      <c r="V66" s="119"/>
-      <c r="W66" s="119"/>
-      <c r="X66" s="119"/>
-      <c r="Y66" s="119"/>
-      <c r="Z66" s="119"/>
-      <c r="AA66" s="119"/>
-      <c r="AB66" s="119"/>
-      <c r="AC66" s="119"/>
-      <c r="AD66" s="119"/>
-      <c r="AE66" s="119"/>
-      <c r="AF66" s="119"/>
-      <c r="AG66" s="119"/>
-      <c r="AH66" s="119"/>
-      <c r="AI66" s="119"/>
-      <c r="AJ66" s="119"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6230,7 +6026,7 @@
   <dimension ref="A2:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.55"/>
@@ -6241,112 +6037,112 @@
   <sheetData>
     <row r="2" spans="1:34">
       <c r="A2" s="38" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="B3" s="38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="B4" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="I4" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="J4" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="K4" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="L4" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="M4" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="I4" s="125" t="s">
+      <c r="N4" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="J4" s="125" t="s">
+      <c r="O4" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="125" t="s">
+      <c r="P4" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="L4" s="125" t="s">
+      <c r="Q4" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="M4" s="125" t="s">
+      <c r="R4" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="N4" s="125" t="s">
+      <c r="S4" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="O4" s="125" t="s">
+      <c r="T4" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="P4" s="125" t="s">
+      <c r="U4" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="Q4" s="125" t="s">
+      <c r="V4" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="R4" s="125" t="s">
+      <c r="W4" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="S4" s="125" t="s">
+      <c r="X4" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="T4" s="125" t="s">
+      <c r="Y4" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="U4" s="125" t="s">
+      <c r="Z4" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="V4" s="125" t="s">
+      <c r="AA4" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W4" s="125" t="s">
+      <c r="AB4" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="X4" s="125" t="s">
+      <c r="AC4" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="Y4" s="125" t="s">
+      <c r="AD4" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="Z4" s="125" t="s">
+      <c r="AE4" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF4" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="AA4" s="125" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB4" s="125" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC4" s="125" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD4" s="125" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE4" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF4" s="125" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG4" s="125" t="s">
+      <c r="AG4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="125" t="s">
+      <c r="AH4" s="57" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6459,7 +6255,7 @@
         <v>96</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E6" s="47">
         <v>186000</v>
@@ -6471,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="47">
-        <v>101</v>
+        <v>402</v>
       </c>
       <c r="I6" s="47">
         <v>0</v>
@@ -6502,7 +6298,7 @@
         <v>1900</v>
       </c>
       <c r="S6" s="47">
-        <v>16889</v>
+        <v>1689</v>
       </c>
       <c r="T6" s="47">
         <v>1711</v>
@@ -6511,7 +6307,7 @@
         <v>1702</v>
       </c>
       <c r="V6" s="47">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="W6" s="47">
         <v>1689</v>
@@ -6532,31 +6328,31 @@
         <v>0</v>
       </c>
       <c r="AC6" s="47">
-        <v>151539</v>
+        <v>151841</v>
       </c>
       <c r="AD6" s="47">
-        <v>192502</v>
+        <v>177595</v>
       </c>
       <c r="AE6" s="41"/>
       <c r="AF6" s="41" t="s">
         <v>52</v>
       </c>
       <c r="AG6" s="41" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="AH6" s="41" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:34">
       <c r="B7" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E7" s="47">
         <v>195000</v>
@@ -6571,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="47">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="J7" s="47">
         <v>9145</v>
@@ -6599,7 +6395,7 @@
         <v>9000</v>
       </c>
       <c r="S7" s="47">
-        <v>17706</v>
+        <v>1771</v>
       </c>
       <c r="T7" s="47">
         <v>1794</v>
@@ -6608,7 +6404,7 @@
         <v>1784</v>
       </c>
       <c r="V7" s="47">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="W7" s="47">
         <v>1771</v>
@@ -6629,31 +6425,31 @@
         <v>0</v>
       </c>
       <c r="AC7" s="47">
-        <v>155319</v>
+        <v>155244</v>
       </c>
       <c r="AD7" s="47">
-        <v>205344</v>
+        <v>189325</v>
       </c>
       <c r="AE7" s="41"/>
       <c r="AF7" s="41" t="s">
         <v>52</v>
       </c>
       <c r="AG7" s="41" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="AH7" s="41" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:34">
       <c r="B8" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E8" s="47">
         <v>220000</v>
@@ -6696,7 +6492,7 @@
         <v>9900</v>
       </c>
       <c r="S8" s="47">
-        <v>19976</v>
+        <v>1998</v>
       </c>
       <c r="T8" s="47">
         <v>2024</v>
@@ -6705,7 +6501,7 @@
         <v>2013</v>
       </c>
       <c r="V8" s="47">
-        <v>1991</v>
+        <v>1981</v>
       </c>
       <c r="W8" s="47">
         <v>1998</v>
@@ -6729,17 +6525,17 @@
         <v>177526</v>
       </c>
       <c r="AD8" s="47">
-        <v>233204</v>
+        <v>215215</v>
       </c>
       <c r="AE8" s="41"/>
       <c r="AF8" s="41" t="s">
         <v>52</v>
       </c>
       <c r="AG8" s="41" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="AH8" s="41" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
